--- a/src/fileExcels/CD_193B.xlsx
+++ b/src/fileExcels/CD_193B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHA VY\Desktop\Auto_api\src\fileExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC18011-7188-43FE-9D5F-AF000F4922B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C1601-757E-461C-80F0-D516FF5269EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>064191001531</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>054189009816</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>052202007383</t>
@@ -782,7 +776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +790,21 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -805,7 +814,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -843,30 +852,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3914F0F7-0099-419F-8FAA-E0EE0B47550D}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1182,22 +1219,22 @@
   </sheetPr>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1206,1366 +1243,1366 @@
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="B2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="B3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>129</v>
+      </c>
+      <c r="B5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>130</v>
+      </c>
+      <c r="B6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>131</v>
+      </c>
+      <c r="B7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>132</v>
+      </c>
+      <c r="B8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="B9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="B10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>135</v>
+      </c>
+      <c r="B11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>136</v>
+      </c>
+      <c r="B12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="B13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>141</v>
+      </c>
+      <c r="B17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>142</v>
+      </c>
+      <c r="B18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>143</v>
+      </c>
+      <c r="B19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>144</v>
+      </c>
+      <c r="B20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>145</v>
+      </c>
+      <c r="B21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="B22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>147</v>
+      </c>
+      <c r="B23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>148</v>
+      </c>
+      <c r="B24" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>149</v>
+      </c>
+      <c r="B25" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>150</v>
+      </c>
+      <c r="B26" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>151</v>
+      </c>
+      <c r="B27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>152</v>
+      </c>
+      <c r="B28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>153</v>
+      </c>
+      <c r="B29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>32</v>
+        <v>155</v>
+      </c>
+      <c r="B31" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>156</v>
+      </c>
+      <c r="B32" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>157</v>
+      </c>
+      <c r="B33" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>35</v>
+        <v>158</v>
+      </c>
+      <c r="B34" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>159</v>
+      </c>
+      <c r="B35" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="B36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>161</v>
+      </c>
+      <c r="B37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>162</v>
+      </c>
+      <c r="B38" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>40</v>
+        <v>163</v>
+      </c>
+      <c r="B39" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>41</v>
+        <v>164</v>
+      </c>
+      <c r="B40" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>42</v>
+        <v>165</v>
+      </c>
+      <c r="B41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>43</v>
+        <v>166</v>
+      </c>
+      <c r="B42" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="B43" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>45</v>
+        <v>168</v>
+      </c>
+      <c r="B44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>46</v>
+        <v>169</v>
+      </c>
+      <c r="B45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
+      </c>
+      <c r="B46" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>48</v>
+        <v>171</v>
+      </c>
+      <c r="B47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>49</v>
+        <v>172</v>
+      </c>
+      <c r="B48" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>50</v>
+        <v>173</v>
+      </c>
+      <c r="B49" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>51</v>
+        <v>174</v>
+      </c>
+      <c r="B50" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>52</v>
+        <v>175</v>
+      </c>
+      <c r="B51" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>53</v>
+        <v>176</v>
+      </c>
+      <c r="B52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>54</v>
+        <v>177</v>
+      </c>
+      <c r="B53" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>55</v>
+        <v>178</v>
+      </c>
+      <c r="B54" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>56</v>
+        <v>179</v>
+      </c>
+      <c r="B55" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>57</v>
+        <v>180</v>
+      </c>
+      <c r="B56" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>58</v>
+        <v>181</v>
+      </c>
+      <c r="B57" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>184</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>59</v>
+        <v>182</v>
+      </c>
+      <c r="B58" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>60</v>
+        <v>183</v>
+      </c>
+      <c r="B59" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>186</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>61</v>
+        <v>184</v>
+      </c>
+      <c r="B60" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>62</v>
+        <v>185</v>
+      </c>
+      <c r="B61" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>63</v>
+        <v>186</v>
+      </c>
+      <c r="B62" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>64</v>
+        <v>187</v>
+      </c>
+      <c r="B63" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>65</v>
+        <v>188</v>
+      </c>
+      <c r="B64" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>66</v>
+        <v>189</v>
+      </c>
+      <c r="B65" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
+      </c>
+      <c r="B66" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>68</v>
+        <v>191</v>
+      </c>
+      <c r="B67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>69</v>
+        <v>192</v>
+      </c>
+      <c r="B68" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>70</v>
+        <v>193</v>
+      </c>
+      <c r="B69" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>71</v>
+        <v>194</v>
+      </c>
+      <c r="B70" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>197</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>72</v>
+        <v>195</v>
+      </c>
+      <c r="B71" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>73</v>
+        <v>196</v>
+      </c>
+      <c r="B72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>74</v>
+        <v>197</v>
+      </c>
+      <c r="B73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>75</v>
+        <v>198</v>
+      </c>
+      <c r="B74" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>76</v>
+        <v>199</v>
+      </c>
+      <c r="B75" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>202</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>77</v>
+        <v>200</v>
+      </c>
+      <c r="B76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>78</v>
+        <v>201</v>
+      </c>
+      <c r="B77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>204</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>79</v>
+        <v>202</v>
+      </c>
+      <c r="B78" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>205</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>80</v>
+        <v>203</v>
+      </c>
+      <c r="B79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>206</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>81</v>
+        <v>204</v>
+      </c>
+      <c r="B80" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>82</v>
+        <v>205</v>
+      </c>
+      <c r="B81" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>83</v>
+        <v>206</v>
+      </c>
+      <c r="B82" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>84</v>
+        <v>207</v>
+      </c>
+      <c r="B83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>210</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>85</v>
+        <v>208</v>
+      </c>
+      <c r="B84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>86</v>
+        <v>209</v>
+      </c>
+      <c r="B85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>212</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>87</v>
+        <v>210</v>
+      </c>
+      <c r="B86" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>213</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>88</v>
+        <v>211</v>
+      </c>
+      <c r="B87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>214</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>89</v>
+        <v>212</v>
+      </c>
+      <c r="B88" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>215</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>90</v>
+        <v>213</v>
+      </c>
+      <c r="B89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>216</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>91</v>
+        <v>214</v>
+      </c>
+      <c r="B90" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>217</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
+      </c>
+      <c r="B91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>218</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>93</v>
+        <v>216</v>
+      </c>
+      <c r="B92" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>219</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>94</v>
+        <v>217</v>
+      </c>
+      <c r="B93" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>220</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>95</v>
+        <v>218</v>
+      </c>
+      <c r="B94" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>221</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>96</v>
+        <v>219</v>
+      </c>
+      <c r="B95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>222</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>97</v>
+        <v>220</v>
+      </c>
+      <c r="B96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>223</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>98</v>
+        <v>221</v>
+      </c>
+      <c r="B97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>224</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>99</v>
+        <v>222</v>
+      </c>
+      <c r="B98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>225</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>100</v>
+        <v>223</v>
+      </c>
+      <c r="B99" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>226</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>101</v>
+        <v>224</v>
+      </c>
+      <c r="B100" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>102</v>
+        <v>225</v>
+      </c>
+      <c r="B101" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>103</v>
+        <v>226</v>
+      </c>
+      <c r="B102" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>229</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>104</v>
+        <v>227</v>
+      </c>
+      <c r="B103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>230</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>105</v>
+        <v>228</v>
+      </c>
+      <c r="B104" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>231</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>106</v>
+        <v>229</v>
+      </c>
+      <c r="B105" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>232</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>107</v>
+        <v>230</v>
+      </c>
+      <c r="B106" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>233</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>108</v>
+        <v>231</v>
+      </c>
+      <c r="B107" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>234</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>109</v>
+        <v>232</v>
+      </c>
+      <c r="B108" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>235</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>110</v>
+        <v>233</v>
+      </c>
+      <c r="B109" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>111</v>
+        <v>234</v>
+      </c>
+      <c r="B110" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>112</v>
+        <v>235</v>
+      </c>
+      <c r="B111" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>113</v>
+        <v>236</v>
+      </c>
+      <c r="B112" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>239</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>114</v>
+        <v>237</v>
+      </c>
+      <c r="B113" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>115</v>
+        <v>238</v>
+      </c>
+      <c r="B114" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>241</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>116</v>
+        <v>239</v>
+      </c>
+      <c r="B115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>242</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>117</v>
+        <v>240</v>
+      </c>
+      <c r="B116" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>118</v>
+        <v>241</v>
+      </c>
+      <c r="B117" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>119</v>
+        <v>242</v>
+      </c>
+      <c r="B118" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>245</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>120</v>
+        <v>243</v>
+      </c>
+      <c r="B119" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>246</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>121</v>
+        <v>244</v>
+      </c>
+      <c r="B120" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>122</v>
+        <v>245</v>
+      </c>
+      <c r="B121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>248</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>123</v>
+        <v>246</v>
+      </c>
+      <c r="B122" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>249</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>124</v>
+        <v>247</v>
+      </c>
+      <c r="B123" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>250</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>125</v>
+        <v>248</v>
+      </c>
+      <c r="B124" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>251</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>126</v>
+        <v>249</v>
+      </c>
+      <c r="B125" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/src/fileExcels/CD_193B.xlsx
+++ b/src/fileExcels/CD_193B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHA VY\Desktop\Auto_api\src\fileExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C1601-757E-461C-80F0-D516FF5269EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F079B-E44D-4AF7-9AE5-944C02188A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,8 +1219,8 @@
   </sheetPr>
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B125"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/fileExcels/CD_193B.xlsx
+++ b/src/fileExcels/CD_193B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHA VY\Desktop\Auto_api\src\fileExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F079B-E44D-4AF7-9AE5-944C02188A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1C32D6-DF96-49D0-80FE-A5184148CFAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1356,7 +1356,7 @@
         <v>136</v>
       </c>
       <c r="B12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1620,7 +1620,7 @@
         <v>160</v>
       </c>
       <c r="B36" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -1741,7 +1741,7 @@
         <v>171</v>
       </c>
       <c r="B47" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>46</v>
@@ -1961,7 +1961,7 @@
         <v>191</v>
       </c>
       <c r="B67" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>66</v>
@@ -2071,7 +2071,7 @@
         <v>201</v>
       </c>
       <c r="B77" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>76</v>
@@ -2181,7 +2181,7 @@
         <v>211</v>
       </c>
       <c r="B87" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>86</v>

--- a/src/fileExcels/CD_193B.xlsx
+++ b/src/fileExcels/CD_193B.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHA VY\Desktop\Auto_api\src\fileExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1C32D6-DF96-49D0-80FE-A5184148CFAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE8F81-ECD5-4DCC-B4EA-975BB04E538D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1246,7 +1246,7 @@
         <v>126</v>
       </c>
       <c r="B2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>151</v>
       </c>
       <c r="B27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -2016,7 +2016,7 @@
         <v>196</v>
       </c>
       <c r="B72" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>71</v>
